--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2807.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2807.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169549302940323</v>
+        <v>0.9025498628616333</v>
       </c>
       <c r="B1">
-        <v>2.441949961581464</v>
+        <v>1.667898416519165</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.300154209136963</v>
       </c>
       <c r="D1">
-        <v>2.364515802870465</v>
+        <v>2.848291158676147</v>
       </c>
       <c r="E1">
-        <v>1.231212672404604</v>
+        <v>0.6086277961730957</v>
       </c>
     </row>
   </sheetData>
